--- a/Squeezenet_Compare_Table.xlsx
+++ b/Squeezenet_Compare_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MakerPro\20191105_OpenVINO_vs_OpenCV\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F42C4-B7CD-4E1B-A839-C763C058B853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892D8E5-E909-4F12-9521-582C979D6C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7400" tabRatio="666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7400" tabRatio="666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenVINO_Device" sheetId="2" r:id="rId1"/>
@@ -230,9 +230,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -621,75 +621,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,59 +700,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -808,16 +709,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,34 +733,127 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088E712E-30B0-49B8-B9A4-65A85D08E2B8}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1164,425 +1164,419 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="39">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="12">
         <f>B8/B13</f>
         <v>0.17356446370530879</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="39">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="12">
         <f>D8/D13</f>
         <v>1.3128256153006369E-3</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="13">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="14">
         <f>F8/F13</f>
         <v>2.2121081136057359E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="39">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="12">
         <f>B9/B13</f>
         <v>1.8201516793066086E-2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="39">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="12">
         <f>D9/D13</f>
         <v>7.1859928416455917E-4</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="14">
         <f>F9/F13</f>
         <v>1.3984591522794884E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="40">
         <v>0.34029999999999999</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="15">
         <f>B10/B13</f>
         <v>0.7373781148429035</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="40">
         <v>7.2073</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="15">
         <f>D10/D13</f>
         <v>0.99599242706908231</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="47">
         <v>3.87</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="17">
         <f>F10/F13</f>
         <v>0.98400671260393091</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="41">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="18">
         <f>B11/B13</f>
         <v>5.2437703141928492E-2</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="41">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="18">
         <f>D11/D13</f>
         <v>1.0640797092436743E-3</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="48">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="20">
         <f>F11/F13</f>
         <v>8.1619161433039225E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="39">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="12">
         <f>B12/B13</f>
         <v>1.8418201516793065E-2</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="39">
         <v>6.6E-3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="12">
         <f>D12/D13</f>
         <v>9.1206832220886368E-4</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="49">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="14">
         <f>F12/F13</f>
         <v>4.1953774568384656E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="42">
         <v>0.46150000000000002</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="22">
         <f>SUM(C8:C12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="42">
         <v>7.2363</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="22">
         <f>SUM(E8:E12)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="50">
         <v>3.9329000000000001</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f>SUM(G8:G12)</f>
         <v>0.99997457346995866</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="11">
         <v>817</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="43">
         <v>0.83641779999999999</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="11">
         <v>817</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="45">
         <v>0.83984380000000003</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="11">
         <v>817</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="51">
         <v>0.84228519999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="11">
         <v>511</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="43">
         <v>9.4568299999999994E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <v>511</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="45">
         <v>9.4360399999999997E-2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="11">
         <v>511</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="51">
         <v>9.1552700000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="11">
         <v>479</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="43">
         <v>4.1919499999999998E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <v>479</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="45">
         <v>3.9306599999999997E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="11">
         <v>479</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="51">
         <v>3.9398200000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="11">
         <v>751</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="43">
         <v>9.1233000000000009E-3</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <v>751</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="45">
         <v>8.7662E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <v>751</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="51">
         <v>9.3536000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="27">
         <v>436</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="44">
         <v>6.8037999999999996E-3</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="27">
         <v>436</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="46">
         <v>7.0609999999999996E-3</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="27">
         <v>436</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="52">
         <v>6.855E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F5:G5"/>
@@ -1595,6 +1589,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,540 +1606,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D62A7D8-BE45-42D9-83E3-6BF3B749981F}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="14.69921875" style="47" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="46"/>
+    <col min="1" max="1" width="16.3984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="14.69921875" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="16"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="60"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="49">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="14">
         <f>B8/B13</f>
         <v>4.4052863436123343E-3</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="49">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="14">
         <f>D8/D13</f>
         <v>1.952140033511737E-4</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="49">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="14">
         <f>F8/F13</f>
         <v>1.8020379410897417E-4</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="49">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="14">
         <f>H8/H13</f>
         <v>4.3537753451921885E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="49">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="14">
         <f>B9/B13</f>
         <v>2.7900146842878119E-2</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="49">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="14">
         <f>D9/D13</f>
         <v>7.9712384701729263E-4</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="49">
         <v>6.3E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="14">
         <f>F9/F13</f>
         <v>1.0320762753513975E-3</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="49">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="14">
         <f>H9/H13</f>
         <v>2.8610523696977236E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="47">
         <v>1.52E-2</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="17">
         <f>B10/B13</f>
         <v>7.4400391581008321E-2</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="47">
         <v>1.0415000000000001</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="17">
         <f>D10/D13</f>
         <v>0.16942948707520622</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="47">
         <v>0.99590000000000001</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="17">
         <f>F10/F13</f>
         <v>0.16314996232102488</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="47">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="17">
         <f>H10/H13</f>
         <v>6.5306630177882829E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="48">
         <v>0.17349999999999999</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="20">
         <f>B11/B13</f>
         <v>0.84924131179637774</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="48">
         <v>5.0929000000000002</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="20">
         <f>D11/D13</f>
         <v>0.82850449805599391</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="48">
         <v>5.0941000000000001</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="20">
         <f>F11/F13</f>
         <v>0.83452377051865934</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="48">
         <v>1.5799000000000001</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="20">
         <f>H11/H13</f>
         <v>0.98264709540987694</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="49">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="14">
         <f>B12/B13</f>
         <v>4.3563387175721974E-2</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="49">
         <v>6.6E-3</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="14">
         <f>D12/D13</f>
         <v>1.0736770184314555E-3</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="49">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="14">
         <f>F12/F13</f>
         <v>1.1139870908554767E-3</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="49">
         <v>1.2E-2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="14">
         <f>H12/H13</f>
         <v>7.4636148774723235E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="50">
         <v>0.20430000000000001</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="24">
         <f>SUM(C8:C12)</f>
         <v>0.99951052373959848</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="50">
         <v>6.1471</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="24">
         <f>SUM(E8:E12)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="50">
         <v>6.1041999999999996</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f>SUM(G8:G12)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="50">
         <v>1.6077999999999999</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="24">
         <f>SUM(I8:I12)</f>
         <v>0.99993780320935444</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="11">
         <v>817</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="51">
         <v>0.83641779999999999</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="11">
         <v>817</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="51">
         <v>0.8363334</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="11">
         <v>817</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="51">
         <v>0.8363334</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="11">
         <v>817</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="51">
         <v>0.84228519999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="11">
         <v>511</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="51">
         <v>9.4568299999999994E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <v>511</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="51">
         <v>9.4648999999999997E-2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="11">
         <v>511</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="51">
         <v>9.4648999999999997E-2</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="11">
         <v>511</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="51">
         <v>9.1552700000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="11">
         <v>479</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="51">
         <v>4.1919499999999998E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <v>479</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="51">
         <v>4.1913499999999999E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="11">
         <v>479</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="51">
         <v>4.1913499999999999E-2</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="11">
         <v>479</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="51">
         <v>3.9398200000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="11">
         <v>751</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="51">
         <v>9.1233000000000009E-3</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <v>751</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="51">
         <v>9.1070999999999999E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <v>751</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="51">
         <v>9.1070999999999999E-3</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="11">
         <v>751</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="51">
         <v>9.3536000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="27">
         <v>436</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="52">
         <v>6.8037999999999996E-3</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="27">
         <v>436</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="52">
         <v>6.8161000000000003E-3</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="27">
         <v>436</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="52">
         <v>6.8161000000000003E-3</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="27">
         <v>436</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="52">
         <v>6.855E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="B6:C6"/>
@@ -2148,22 +2162,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94107FD3-6D00-48A3-A68B-E37A23389FB4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2189,437 +2187,437 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="39">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="12">
         <f>B8/B13</f>
         <v>0.17356446370530879</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="49">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="14">
         <f>D8/D13</f>
         <v>4.4052863436123343E-3</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="49">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="14">
         <f>F8/F13</f>
         <v>9.9857346647646231E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="39">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="12">
         <f>B9/B13</f>
         <v>1.8201516793066086E-2</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="49">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="14">
         <f>D9/D13</f>
         <v>2.7900146842878119E-2</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="14">
         <f>F9/F13</f>
         <v>7.1326676176890161E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="40">
         <v>0.34029999999999999</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="15">
         <f>B10/B13</f>
         <v>0.7373781148429035</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="47">
         <v>1.52E-2</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="17">
         <f>D10/D13</f>
         <v>7.4400391581008321E-2</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="47">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="17">
         <f>F10/F13</f>
         <v>0.32952924393723254</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="41">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="18">
         <f>B11/B13</f>
         <v>5.2437703141928492E-2</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="48">
         <v>0.17349999999999999</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="20">
         <f>D11/D13</f>
         <v>0.84924131179637774</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="48">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="20">
         <f>F11/F13</f>
         <v>0.46077032810271046</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="39">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="12">
         <f>B12/B13</f>
         <v>1.8418201516793065E-2</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="49">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="14">
         <f>D12/D13</f>
         <v>4.3563387175721974E-2</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="49">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="14">
         <f>F12/F13</f>
         <v>0.12838801711840228</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="42">
         <v>0.46150000000000002</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="22">
         <f>SUM(C8:C12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="50">
         <v>0.20430000000000001</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="24">
         <f>SUM(E8:E12)</f>
         <v>0.99951052373959848</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="50">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f>SUM(G8:G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="11">
         <v>817</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="43">
         <v>0.83641779999999999</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="11">
         <v>817</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="51">
         <v>0.83641779999999999</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="11">
         <v>817</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="53">
         <v>0.83633500000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="11">
         <v>511</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="43">
         <v>9.4568299999999994E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <v>511</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="51">
         <v>9.4568299999999994E-2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="11">
         <v>511</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="53">
         <v>9.4648099999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="11">
         <v>479</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="43">
         <v>4.1919499999999998E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <v>479</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="51">
         <v>4.1919499999999998E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="11">
         <v>479</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="53">
         <v>4.1913199999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="11">
         <v>751</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="43">
         <v>9.1233000000000009E-3</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <v>751</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="51">
         <v>9.1233000000000009E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <v>751</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="53">
         <v>9.1070999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="27">
         <v>436</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="44">
         <v>6.8037999999999996E-3</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="27">
         <v>436</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="52">
         <v>6.8037999999999996E-3</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="27">
         <v>436</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="54">
         <v>6.8161000000000003E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2637,444 +2635,444 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="14.69921875" style="47" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="46"/>
+    <col min="1" max="1" width="16.3984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14.69921875" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="49">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="14">
         <f>B8/B13</f>
         <v>9.9857346647646231E-3</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="49">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="14">
         <f>D8/D13</f>
         <v>8.0200501253132835E-4</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="14">
         <f>F8/F13</f>
         <v>7.4987502082986171E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="14">
         <f>B9/B13</f>
         <v>7.1326676176890161E-2</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="49">
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="14">
         <f>D9/D13</f>
         <v>2.6566416040100251E-3</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="14">
         <f>F9/F13</f>
         <v>4.082652891184803E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="47">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="17">
         <f>B10/B13</f>
         <v>0.32952924393723254</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="47">
         <v>1.7186999999999999</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="17">
         <f>D10/D13</f>
         <v>0.86150375939849611</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="16">
         <v>1.0395000000000001</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="14">
         <f>F10/F13</f>
         <v>0.86610564905849041</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="48">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="20">
         <f>B11/B13</f>
         <v>0.46077032810271046</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="48">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="20">
         <f>D11/D13</f>
         <v>0.13082706766917293</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="19">
         <v>0.1462</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="14">
         <f>F11/F13</f>
         <v>0.12181303116147309</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="49">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="14">
         <f>B12/B13</f>
         <v>0.12838801711840228</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="49">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="14">
         <f>D12/D13</f>
         <v>4.2105263157894736E-3</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="13">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="14">
         <f>F12/F13</f>
         <v>7.2487918680219964E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="50">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="24">
         <f>SUM(C8:C12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="50">
         <v>1.9950000000000001</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="24">
         <f>SUM(E8:E12)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="23">
         <v>1.2001999999999999</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f>SUM(G8:G12)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="11">
         <v>817</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="51">
         <v>0.83633500000000005</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="11">
         <v>817</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="25">
         <v>0.8363332</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="11">
         <v>817</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="25">
         <v>0.8363332</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="11">
         <v>511</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="51">
         <v>9.4648099999999999E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <v>511</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="25">
         <v>9.4649300000000006E-2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="11">
         <v>511</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="25">
         <v>9.4649300000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="11">
         <v>479</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="51">
         <v>4.1913199999999998E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <v>479</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="25">
         <v>4.1913600000000002E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="11">
         <v>479</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="25">
         <v>4.1913600000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="11">
         <v>751</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="51">
         <v>9.1070999999999999E-3</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <v>751</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="25">
         <v>9.1071999999999993E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <v>751</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="25">
         <v>9.1071999999999993E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="27">
         <v>436</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="52">
         <v>6.8161000000000003E-3</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="27">
         <v>436</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="28">
         <v>6.8161999999999997E-3</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="27">
         <v>436</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="28">
         <v>6.8161999999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3096,48 +3094,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="38" t="s">
         <v>47</v>
       </c>
     </row>
